--- a/Assembly/shield_can-display/bom-shield_can-display.xlsx
+++ b/Assembly/shield_can-display/bom-shield_can-display.xlsx
@@ -14,21 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="156">
   <si>
     <t>Bill of Materials</t>
   </si>
   <si>
-    <t>Date: 23/11/2019</t>
-  </si>
-  <si>
-    <t>Project: Shield 7'' Display CAN, RS232, RS485 PN: -</t>
-  </si>
-  <si>
-    <t>Hardware_version: 3</t>
-  </si>
-  <si>
-    <t>PCB_version: D</t>
+    <t>Generation Date: 12/02/2020</t>
+  </si>
+  <si>
+    <t>Project Date: 28/12/2015</t>
+  </si>
+  <si>
+    <t>Hardware Version: 3</t>
+  </si>
+  <si>
+    <t>PCB Version: E</t>
+  </si>
+  <si>
+    <t>Project Name: Shield 7'' Display</t>
+  </si>
+  <si>
+    <t>License: MIT</t>
+  </si>
+  <si>
+    <t>Descriptions: Shield 7'' Display CAN, RS232, RS485</t>
+  </si>
+  <si>
+    <t>Part Number: -</t>
+  </si>
+  <si>
+    <t>Project status: Reference</t>
+  </si>
+  <si>
+    <t>Project group: -</t>
   </si>
   <si>
     <t>BOM files:</t>
@@ -40,6 +58,39 @@
     <t>Statistics</t>
   </si>
   <si>
+    <t>Merged Files Number</t>
+  </si>
+  <si>
+    <t>Components:</t>
+  </si>
+  <si>
+    <t>Connectors and holders</t>
+  </si>
+  <si>
+    <t>Mechanical parts and buttons</t>
+  </si>
+  <si>
+    <t>Resistor components</t>
+  </si>
+  <si>
+    <t>Capacitors</t>
+  </si>
+  <si>
+    <t>Diodes, Zener, Schottky, LED, Transil</t>
+  </si>
+  <si>
+    <t>L  Inductors, chokes</t>
+  </si>
+  <si>
+    <t>Cristal, quarz, oscillator</t>
+  </si>
+  <si>
+    <t>Integrates and chips</t>
+  </si>
+  <si>
+    <t>Total BOM Componets</t>
+  </si>
+  <si>
     <t>NP=NOT POPULATE (NON MONTARE)!</t>
   </si>
   <si>
@@ -76,6 +127,15 @@
     <t>Terminal block Header 3.5mm Horizontal (WE 691322110003)</t>
   </si>
   <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>HEADER_1X2_2.54MM_THD</t>
+  </si>
+  <si>
+    <t>Pin Header, 2.54mm, 1x2, 2pin</t>
+  </si>
+  <si>
     <t>J3</t>
   </si>
   <si>
@@ -85,13 +145,28 @@
     <t>Receptacle Assembly, 9 Position, Right Angle (WE 618009231421)</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>HEADER_1X2_2.54MM_THD</t>
-  </si>
-  <si>
-    <t>Pin Header, 2.54mm, 1x2, 2pin</t>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>SOCKET_2x26_2.54MM_THD</t>
+  </si>
+  <si>
+    <t>Socket Header, 26 pin, 13x2, 2.54mm, H=8.5mm</t>
+  </si>
+  <si>
+    <t>J6, J7</t>
+  </si>
+  <si>
+    <t>Pin header 26x2</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>FCC-ZIF_40PIN_0.5MM_TOP_LOWPROFILE</t>
+  </si>
+  <si>
+    <t>Connectors, FPC, SMT ZIF, Low Profile, Horizontal, Top Contact, pitch 0.5 mm, 40 pins (WE 687140183622)</t>
   </si>
   <si>
     <t>J9</t>
@@ -101,30 +176,6 @@
   </si>
   <si>
     <t>SMT ZIF Connectors Low Profile WR-FPC, Horizontal, BOT Contact, pitch 0.5 mm, 10 pins</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>SOCKET_2x26_2.54MM_THD</t>
-  </si>
-  <si>
-    <t>Socket Header, 26 pin, 13x2, 2.54mm, H=8.5mm</t>
-  </si>
-  <si>
-    <t>J6, J7</t>
-  </si>
-  <si>
-    <t>Pin header 26x2</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>FCC-ZIF_40PIN_0.5MM_TOP_LOWPROFILE</t>
-  </si>
-  <si>
-    <t>Connectors, FPC, SMT ZIF, Low Profile, Horizontal, Top Contact, pitch 0.5 mm, 40 pins (WE 687140183622)</t>
   </si>
   <si>
     <t>S * Mechanical parts and buttons *</t>
@@ -437,7 +488,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +498,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -478,7 +537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +547,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66B2FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4C9900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -545,20 +622,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,16 +947,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="66" width="50.7109375" customWidth="1"/>
-    <col min="4" max="66" width="50.7109375" customWidth="1"/>
-    <col min="5" max="66" width="50.7109375" customWidth="1"/>
-    <col min="6" max="66" width="50.7109375" customWidth="1"/>
+    <col min="3" max="83" width="50.7109375" customWidth="1"/>
+    <col min="4" max="83" width="50.7109375" customWidth="1"/>
+    <col min="5" max="83" width="50.7109375" customWidth="1"/>
+    <col min="6" max="83" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -942,7 +1034,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -951,7 +1045,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -961,7 +1055,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -969,900 +1063,1047 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
+        <v>49</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
         <v>2</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="6">
+        <v>96</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="11">
         <v>2</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="B38" s="12">
+        <v>2</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="11">
+        <v>1</v>
+      </c>
+      <c r="B39" s="12">
+        <v>1</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="11">
+        <v>1</v>
+      </c>
+      <c r="B40" s="12">
+        <v>1</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="11">
+        <v>1</v>
+      </c>
+      <c r="B41" s="12">
+        <v>1</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="11">
+        <v>2</v>
+      </c>
+      <c r="B42" s="12">
+        <v>2</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="11">
+        <v>1</v>
+      </c>
+      <c r="B43" s="12">
+        <v>1</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="11">
+        <v>1</v>
+      </c>
+      <c r="B44" s="12">
+        <v>1</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="11">
+        <v>1</v>
+      </c>
+      <c r="B46" s="12">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="11">
+        <v>7</v>
+      </c>
+      <c r="B48" s="12">
+        <v>7</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="11">
+        <v>1</v>
+      </c>
+      <c r="B49" s="12">
+        <v>1</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="11">
+        <v>4</v>
+      </c>
+      <c r="B50" s="12">
+        <v>4</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="11">
+        <v>1</v>
+      </c>
+      <c r="B51" s="12">
+        <v>1</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="11">
+        <v>1</v>
+      </c>
+      <c r="B52" s="12">
+        <v>1</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="11">
         <v>17</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="B53" s="12">
+        <v>17</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="11">
+        <v>4</v>
+      </c>
+      <c r="B54" s="12">
+        <v>4</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="11">
+        <v>2</v>
+      </c>
+      <c r="B55" s="12">
+        <v>2</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="11">
+        <v>1</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="11">
+        <v>2</v>
+      </c>
+      <c r="B57" s="12">
+        <v>2</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="11">
+        <v>2</v>
+      </c>
+      <c r="B58" s="12">
+        <v>2</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="11">
+        <v>2</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="11">
+        <v>2</v>
+      </c>
+      <c r="B60" s="12">
+        <v>2</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="11">
+        <v>1</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="11">
+        <v>1</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="11">
+        <v>1</v>
+      </c>
+      <c r="B63" s="12">
+        <v>1</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="11">
+        <v>2</v>
+      </c>
+      <c r="B65" s="12">
+        <v>2</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="11">
         <v>18</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6">
-        <v>1</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6">
-        <v>1</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="6">
-        <v>2</v>
-      </c>
-      <c r="B26" s="7">
-        <v>2</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="6">
-        <v>1</v>
-      </c>
-      <c r="B29" s="7">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6">
-        <v>7</v>
-      </c>
-      <c r="B31" s="7">
-        <v>7</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="6">
-        <v>1</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="6">
-        <v>4</v>
-      </c>
-      <c r="B33" s="7">
-        <v>4</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="6">
-        <v>1</v>
-      </c>
-      <c r="B34" s="7">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="6">
-        <v>1</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="6">
-        <v>17</v>
-      </c>
-      <c r="B36" s="7">
-        <v>17</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="6">
-        <v>4</v>
-      </c>
-      <c r="B37" s="7">
-        <v>4</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="6">
-        <v>2</v>
-      </c>
-      <c r="B38" s="7">
-        <v>2</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="B66" s="12">
+        <v>18</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6">
-        <v>1</v>
-      </c>
-      <c r="B39" s="7">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="6">
-        <v>2</v>
-      </c>
-      <c r="B40" s="7">
-        <v>2</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="6">
-        <v>2</v>
-      </c>
-      <c r="B41" s="7">
-        <v>2</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="6">
-        <v>2</v>
-      </c>
-      <c r="B42" s="7">
-        <v>2</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="6">
-        <v>2</v>
-      </c>
-      <c r="B43" s="7">
-        <v>2</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="6">
-        <v>1</v>
-      </c>
-      <c r="B44" s="7">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="6">
-        <v>1</v>
-      </c>
-      <c r="B45" s="7">
-        <v>1</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="6">
-        <v>1</v>
-      </c>
-      <c r="B46" s="7">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="6">
-        <v>2</v>
-      </c>
-      <c r="B48" s="7">
-        <v>2</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="6">
-        <v>18</v>
-      </c>
-      <c r="B49" s="7">
-        <v>18</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="6">
-        <v>1</v>
-      </c>
-      <c r="B50" s="7">
-        <v>1</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="6">
-        <v>1</v>
-      </c>
-      <c r="B51" s="7">
-        <v>1</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="6">
-        <v>1</v>
-      </c>
-      <c r="B53" s="7">
-        <v>1</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="6">
+      <c r="F66" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="11">
+        <v>1</v>
+      </c>
+      <c r="B67" s="12">
+        <v>1</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="11">
+        <v>1</v>
+      </c>
+      <c r="B68" s="12">
+        <v>1</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="11">
+        <v>1</v>
+      </c>
+      <c r="B70" s="12">
+        <v>1</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="11">
         <v>5</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B71" s="12">
         <v>5</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="6">
-        <v>1</v>
-      </c>
-      <c r="B56" s="7">
-        <v>1</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="6">
-        <v>1</v>
-      </c>
-      <c r="B57" s="7">
-        <v>1</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="6">
-        <v>1</v>
-      </c>
-      <c r="B59" s="7">
-        <v>1</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" s="7" t="s">
+      <c r="C71" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="5" t="s">
+      <c r="D71" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="6">
-        <v>1</v>
-      </c>
-      <c r="B61" s="7">
-        <v>1</v>
-      </c>
-      <c r="C61" s="7" t="s">
+      <c r="E71" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="F71" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E61" s="7" t="s">
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="11">
+        <v>1</v>
+      </c>
+      <c r="B73" s="12">
+        <v>1</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="6">
-        <v>1</v>
-      </c>
-      <c r="B62" s="7">
-        <v>1</v>
-      </c>
-      <c r="C62" s="7" t="s">
+      <c r="D73" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="E73" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="F73" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F62" s="7" t="s">
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="11">
+        <v>1</v>
+      </c>
+      <c r="B74" s="12">
+        <v>1</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="6">
-        <v>1</v>
-      </c>
-      <c r="B63" s="7">
-        <v>1</v>
-      </c>
-      <c r="C63" s="7" t="s">
+      <c r="D74" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="E74" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="F74" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F63" s="7" t="s">
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="6">
-        <v>1</v>
-      </c>
-      <c r="B64" s="7">
-        <v>1</v>
-      </c>
-      <c r="C64" s="7" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="11">
+        <v>1</v>
+      </c>
+      <c r="B76" s="12">
+        <v>1</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D76" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F64" s="7" t="s">
+      <c r="E76" s="12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="6">
-        <v>1</v>
-      </c>
-      <c r="B65" s="7">
-        <v>1</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="F76" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="7" t="s">
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="11">
+        <v>1</v>
+      </c>
+      <c r="B78" s="12">
+        <v>1</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="6">
-        <v>1</v>
-      </c>
-      <c r="B66" s="7">
-        <v>1</v>
-      </c>
-      <c r="C66" s="7" t="s">
+      <c r="D78" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="E78" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="F78" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F66" s="7" t="s">
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="11">
+        <v>1</v>
+      </c>
+      <c r="B79" s="12">
+        <v>1</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>138</v>
       </c>
+      <c r="D79" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="11">
+        <v>1</v>
+      </c>
+      <c r="B80" s="12">
+        <v>1</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="11">
+        <v>1</v>
+      </c>
+      <c r="B81" s="12">
+        <v>1</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="11">
+        <v>1</v>
+      </c>
+      <c r="B82" s="12">
+        <v>1</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="11">
+        <v>1</v>
+      </c>
+      <c r="B83" s="12">
+        <v>1</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="36">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
@@ -1874,15 +2115,31 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A77:F77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
